--- a/tests/testthat/assets/input_leaf_branch_areas.xlsx
+++ b/tests/testthat/assets/input_leaf_branch_areas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -25,7 +25,7 @@
     <t xml:space="preserve">species_name</t>
   </si>
   <si>
-    <t xml:space="preserve">sample_id</t>
+    <t xml:space="preserve">tree_id</t>
   </si>
   <si>
     <t xml:space="preserve">strain_number</t>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">set_temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">leaf_area_cm2</t>
+    <t xml:space="preserve">area_cm2</t>
   </si>
   <si>
     <t xml:space="preserve">surface_branch_area_cm2</t>
@@ -64,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -148,19 +149,19 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
